--- a/Data/LandCover/Fagaalu_Watershed_Stats.xlsx
+++ b/Data/LandCover/Fagaalu_Watershed_Stats.xlsx
@@ -173,25 +173,25 @@
     <t>LOWER (QUARRY+VILLAGE)</t>
   </si>
   <si>
-    <t>LOWER_VILLAGE (FG3)</t>
-  </si>
-  <si>
-    <t>UPPER (FG1)</t>
-  </si>
-  <si>
-    <t>LOWER_QUARRY (FG2)</t>
-  </si>
-  <si>
-    <t>LOWER (FG3)</t>
-  </si>
-  <si>
-    <t>Subwatershed (pourpoint)</t>
-  </si>
-  <si>
-    <t>TOTAL (FG3)</t>
-  </si>
-  <si>
     <t>Fagaalu Watershed (outlet to ocean)</t>
+  </si>
+  <si>
+    <t>Upper (FG1)</t>
+  </si>
+  <si>
+    <t>Lower_Quarry (FG2)</t>
+  </si>
+  <si>
+    <t>Lower_Village (FG3)</t>
+  </si>
+  <si>
+    <t>Lower (FG3)</t>
+  </si>
+  <si>
+    <t>Total (FG3)</t>
+  </si>
+  <si>
+    <t>Subwatershed (outlet)</t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1379,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X6" sqref="X6"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,7 +1410,7 @@
   <sheetData>
     <row r="1" spans="1:25" s="48" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="48" t="s">
         <v>28</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B4" s="37">
         <v>1.776413</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" s="37">
         <v>1.776413</v>
@@ -1926,13 +1926,13 @@
     </row>
     <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B7" s="43">
         <v>1.860692</v>
       </c>
       <c r="C7" s="45">
-        <f t="shared" ref="C3:C7" si="20">B7/$B$7</f>
+        <f t="shared" ref="C7" si="20">B7/$B$7</f>
         <v>1</v>
       </c>
       <c r="D7" s="43">
